--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ILLINOIS_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ILLINOIS_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1840"/>
+  <dimension ref="A1:D1834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C36">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C42">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C51">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C56">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C84">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C89">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -2349,7 +2349,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C151">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C154">
@@ -2583,7 +2583,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C169">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C170">
@@ -2661,7 +2661,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2705,7 +2705,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2900,7 +2900,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C213">
@@ -3365,7 +3365,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C228">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C232">
@@ -3617,7 +3617,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C247">
@@ -3708,7 +3708,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C254">
@@ -3760,7 +3760,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C258">
@@ -3773,7 +3773,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C259">
@@ -3786,7 +3786,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C260">
@@ -3799,7 +3799,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C261">
@@ -3929,12 +3929,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C271">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C275">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C282">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C289">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C293">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C301">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C310">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C336">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C337">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C338">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C340">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4987,7 +4987,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C352">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C353">
@@ -5124,7 +5124,7 @@
         <v>61</v>
       </c>
       <c r="D362">
-        <v>0.0009202685373759999</v>
+        <v>0.0009202685373760001</v>
       </c>
     </row>
     <row r="363">
@@ -5169,7 +5169,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C366">
@@ -5260,7 +5260,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C373">
@@ -5273,7 +5273,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C374">
@@ -5312,7 +5312,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C377">
@@ -5325,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C378">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C389">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C390">
@@ -5603,7 +5603,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C399">
@@ -5655,7 +5655,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C403">
@@ -5746,7 +5746,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C410">
@@ -5811,7 +5811,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C415">
@@ -5831,13 +5831,13 @@
         <v>61</v>
       </c>
       <c r="D416">
-        <v>0.0009202685373759999</v>
+        <v>0.0009202685373760001</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C417">
@@ -5863,7 +5863,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C419">
@@ -5876,7 +5876,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C420">
@@ -5889,7 +5889,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C421">
@@ -5915,7 +5915,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C423">
@@ -5980,7 +5980,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C428">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C434">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C437">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C438">
@@ -6167,7 +6167,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C442">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C443">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C445">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C446">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C449">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C450">
@@ -6284,7 +6284,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C451">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C452">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C453">
@@ -6375,7 +6375,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C458">
@@ -6388,7 +6388,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C459">
@@ -6440,7 +6440,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C463">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C464">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C471">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C472">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C475">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C476">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C479">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C485">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C496">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C499">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C501">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C505">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C506">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C508">
@@ -7090,7 +7090,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C513">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C520">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C527">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C528">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C534">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C540">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C544">
@@ -7550,7 +7550,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C548">
@@ -7628,7 +7628,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C554">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C555">
@@ -7654,7 +7654,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C556">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C557">
@@ -7680,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C558">
@@ -7706,7 +7706,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C560">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C561">
@@ -7732,7 +7732,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C562">
@@ -7771,7 +7771,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C565">
@@ -7849,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C571">
@@ -7862,7 +7862,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C572">
@@ -7914,7 +7914,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C576">
@@ -7940,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C578">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C579">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C582">
@@ -8096,7 +8096,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C590">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C591">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C592">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C601">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C602">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C607">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C610">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C612">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C618">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C624">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C625">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C633">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C639">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C641">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C642">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C646">
@@ -8907,7 +8907,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C652">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C653">
@@ -9024,7 +9024,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C661">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C667">
@@ -9141,7 +9141,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C670">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C671">
@@ -9193,7 +9193,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C674">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C677">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C678">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C679">
@@ -9297,7 +9297,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C682">
@@ -9310,7 +9310,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C683">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C686">
@@ -9388,7 +9388,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C689">
@@ -9401,7 +9401,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C690">
@@ -9440,7 +9440,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C693">
@@ -9453,7 +9453,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C694">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C703">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C704">
@@ -9596,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C705">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C711">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C715">
@@ -9739,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C716">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -10056,7 +10056,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C740">
@@ -10082,7 +10082,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C742">
@@ -10953,7 +10953,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C809">
@@ -11270,7 +11270,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C833">
@@ -11426,7 +11426,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C845">
@@ -11504,7 +11504,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C851">
@@ -11517,7 +11517,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C852">
@@ -11634,7 +11634,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C861">
@@ -11691,7 +11691,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C865">
@@ -11743,7 +11743,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C869">
@@ -11821,7 +11821,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C875">
@@ -11982,7 +11982,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C887">
@@ -12086,7 +12086,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C895">
@@ -12164,7 +12164,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C901">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C907">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C911">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C917">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C919">
@@ -12416,7 +12416,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C920">
@@ -12455,7 +12455,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C923">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C925">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C927">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C928">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C929">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C931">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C932">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C933">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C934">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C935">
@@ -12624,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C936">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C937">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C938">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C944">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C946">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C948">
@@ -12806,7 +12806,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C950">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C951">
@@ -12832,7 +12832,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C952">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C953">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C955">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C956">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C957">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C971">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C979">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C985">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C995">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C999">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1024">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1046">
@@ -14340,7 +14340,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1068">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1069">
@@ -14366,7 +14366,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1070">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1089">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1091">
@@ -14821,7 +14821,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1105">
@@ -15549,7 +15549,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1161">
@@ -15627,7 +15627,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1167">
@@ -15640,7 +15640,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1168">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1169">
@@ -15679,7 +15679,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1171">
@@ -15692,7 +15692,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1172">
@@ -15705,7 +15705,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1173">
@@ -15718,7 +15718,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1174">
@@ -15770,7 +15770,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1178">
@@ -15783,7 +15783,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1179">
@@ -15796,7 +15796,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1180">
@@ -15809,7 +15809,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1181">
@@ -15822,7 +15822,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1182">
@@ -15835,7 +15835,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1183">
@@ -15848,7 +15848,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1184">
@@ -15900,7 +15900,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1188">
@@ -16204,7 +16204,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1211">
@@ -16256,7 +16256,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1215">
@@ -16341,7 +16341,7 @@
         <v>61</v>
       </c>
       <c r="D1221">
-        <v>0.0009202685373759999</v>
+        <v>0.0009202685373760001</v>
       </c>
     </row>
     <row r="1222">
@@ -16386,7 +16386,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1225">
@@ -16542,7 +16542,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1237">
@@ -16555,7 +16555,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1238">
@@ -16750,7 +16750,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1253">
@@ -16763,7 +16763,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1254">
@@ -16815,7 +16815,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1258">
@@ -16841,7 +16841,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1260">
@@ -16880,7 +16880,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1263">
@@ -17010,7 +17010,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1273">
@@ -17140,7 +17140,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1283">
@@ -17374,7 +17374,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1301">
@@ -17426,7 +17426,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1305">
@@ -17439,7 +17439,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1306">
@@ -17530,7 +17530,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1313">
@@ -17634,7 +17634,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1321">
@@ -17647,7 +17647,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1322">
@@ -17725,7 +17725,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1328">
@@ -17751,7 +17751,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1330">
@@ -17771,7 +17771,7 @@
         <v>61</v>
       </c>
       <c r="D1331">
-        <v>0.0009202685373759999</v>
+        <v>0.0009202685373760001</v>
       </c>
     </row>
     <row r="1332">
@@ -17816,7 +17816,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1335">
@@ -17959,7 +17959,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1346">
@@ -18024,7 +18024,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1351">
@@ -18089,7 +18089,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1356">
@@ -18167,7 +18167,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1362">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1369">
@@ -18289,7 +18289,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1371">
@@ -18354,7 +18354,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1376">
@@ -18367,7 +18367,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1377">
@@ -18406,7 +18406,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1380">
@@ -18445,7 +18445,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1383">
@@ -18598,7 +18598,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1394">
@@ -18611,7 +18611,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1395">
@@ -18663,7 +18663,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1399">
@@ -18715,7 +18715,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1403">
@@ -18832,7 +18832,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1412">
@@ -18910,7 +18910,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1418">
@@ -18975,7 +18975,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1423">
@@ -19001,7 +19001,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1425">
@@ -19079,7 +19079,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1431">
@@ -19157,7 +19157,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1437">
@@ -19170,7 +19170,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1438">
@@ -19183,7 +19183,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1439">
@@ -19196,7 +19196,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1440">
@@ -19209,7 +19209,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1441">
@@ -19726,7 +19726,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1480">
@@ -19913,7 +19913,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1494">
@@ -20321,7 +20321,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1525">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1533">
@@ -20443,7 +20443,7 @@
     <row r="1534">
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1534">
@@ -20456,7 +20456,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1535">
@@ -20534,7 +20534,7 @@
     <row r="1541">
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1541">
@@ -20651,7 +20651,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1550">
@@ -20690,7 +20690,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1553">
@@ -20703,7 +20703,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1554">
@@ -20716,7 +20716,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1555">
@@ -20755,7 +20755,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1558">
@@ -20794,7 +20794,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1561">
@@ -20846,7 +20846,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1565">
@@ -20885,7 +20885,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1568">
@@ -21002,7 +21002,7 @@
     <row r="1577">
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1577">
@@ -21028,7 +21028,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -21124,7 +21124,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1586">
@@ -21144,7 +21144,7 @@
         <v>61</v>
       </c>
       <c r="D1587">
-        <v>0.0009202685373759999</v>
+        <v>0.0009202685373760001</v>
       </c>
     </row>
     <row r="1588">
@@ -21176,7 +21176,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1590">
@@ -21306,7 +21306,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1600">
@@ -21332,7 +21332,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1602">
@@ -21384,7 +21384,7 @@
     <row r="1606">
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1606">
@@ -21410,7 +21410,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1608">
@@ -21475,7 +21475,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1613">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1622">
@@ -21605,7 +21605,7 @@
     <row r="1623">
       <c r="B1623" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1623">
@@ -21826,7 +21826,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1640">
@@ -21839,7 +21839,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1641">
@@ -21891,7 +21891,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1645">
@@ -21917,7 +21917,7 @@
     <row r="1647">
       <c r="B1647" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1647">
@@ -21930,7 +21930,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1648">
@@ -21943,7 +21943,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1649">
@@ -22060,7 +22060,7 @@
     <row r="1658">
       <c r="B1658" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1658">
@@ -22112,7 +22112,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1662">
@@ -22151,7 +22151,7 @@
     <row r="1665">
       <c r="B1665" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1665">
@@ -22164,7 +22164,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1666">
@@ -22216,7 +22216,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1670">
@@ -22294,7 +22294,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1676">
@@ -22320,7 +22320,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1678">
@@ -22437,7 +22437,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1687">
@@ -22476,7 +22476,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1690">
@@ -22489,7 +22489,7 @@
     <row r="1691">
       <c r="B1691" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1691">
@@ -22528,7 +22528,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1694">
@@ -22684,7 +22684,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1706">
@@ -22723,7 +22723,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1709">
@@ -22814,7 +22814,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1716">
@@ -23087,7 +23087,7 @@
     <row r="1737">
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1737">
@@ -23243,7 +23243,7 @@
     <row r="1749">
       <c r="B1749" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1749">
@@ -23386,7 +23386,7 @@
     <row r="1760">
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1760">
@@ -23399,7 +23399,7 @@
     <row r="1761">
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1761">
@@ -23669,7 +23669,7 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1781">
@@ -23695,7 +23695,7 @@
     <row r="1783">
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1783">
@@ -23734,7 +23734,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1786">
@@ -23877,7 +23877,7 @@
     <row r="1797">
       <c r="B1797" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1797">
@@ -23955,7 +23955,7 @@
     <row r="1803">
       <c r="B1803" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1803">
@@ -24020,7 +24020,7 @@
     <row r="1808">
       <c r="B1808" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1808">
@@ -24033,7 +24033,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1809">
@@ -24046,7 +24046,7 @@
     <row r="1810">
       <c r="B1810" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1810">
@@ -24189,7 +24189,7 @@
     <row r="1821">
       <c r="B1821" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1821">
@@ -24202,7 +24202,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1822">
@@ -24228,7 +24228,7 @@
     <row r="1824">
       <c r="B1824" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1824">
@@ -24306,7 +24306,7 @@
     <row r="1830">
       <c r="B1830" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1830">
@@ -24358,7 +24358,7 @@
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1834">
@@ -24366,41 +24366,6 @@
       </c>
       <c r="D1834">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
